--- a/biology/Médecine/Syndrome_de_Richter/Syndrome_de_Richter.xlsx
+++ b/biology/Médecine/Syndrome_de_Richter/Syndrome_de_Richter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Richter est la survenue d'un lymphome de haut grade au cours d'une leucémie lymphoïde chronique. Il s'observe dans 3 à 10 % des cas.
 L'apparition d'un syndrome de Richter classe immédiatement la LLC en stade C de la classification de Binet. 
@@ -513,9 +525,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La transformation d'une leucémie lymphoïde chronique en syndrome de Richter serait favorisée par l'inactivation du TP53 et de CDKN2A[1]. La mutation du NOTCH1 pourrait également jouer un rôle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La transformation d'une leucémie lymphoïde chronique en syndrome de Richter serait favorisée par l'inactivation du TP53 et de CDKN2A. La mutation du NOTCH1 pourrait également jouer un rôle.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs combinaisons de chimiothérapie sont proposées : oxaliplatine-fludarabine-cytarabine-rituximab[3], cyclophosphamide-vincristine-doxorubicine-dexaméthasone[4] ou rituximab-cyclophosphamide-vincristine-doxorubicine-prednisolone[5], toutes donnant une durée de rémission courte.
-La greffe de moelle doit être proposée, quand cela est possible, dès la rémission atteinte[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs combinaisons de chimiothérapie sont proposées : oxaliplatine-fludarabine-cytarabine-rituximab, cyclophosphamide-vincristine-doxorubicine-dexaméthasone ou rituximab-cyclophosphamide-vincristine-doxorubicine-prednisolone, toutes donnant une durée de rémission courte.
+La greffe de moelle doit être proposée, quand cela est possible, dès la rémission atteinte.
 </t>
         </is>
       </c>
